--- a/data/Covid19_infection_vax_No79.xlsx
+++ b/data/Covid19_infection_vax_No79.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D8E52-B335-C84B-91CC-FFD1479D3C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C221D-46A8-2243-84AC-9F6A92BB35E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="3300" windowWidth="30080" windowHeight="22300" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
   </bookViews>
   <sheets>
     <sheet name="感染_ワクチン" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,6 +379,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -750,15 +758,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,8 +890,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1194,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C4F1B-109F-DD48-A686-124025DC4044}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H3" sqref="H3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1208,7 +1223,7 @@
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="39" t="s">
         <v>77</v>
       </c>
@@ -1218,7 +1233,7 @@
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
     </row>
-    <row r="2" spans="1:6" ht="21" thickBot="1">
+    <row r="2" spans="1:9" ht="21" thickBot="1">
       <c r="A2" s="8"/>
       <c r="B2" s="30" t="s">
         <v>64</v>
@@ -1236,7 +1251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1275,16 @@
         <f t="array" ref="F3:F12">一次集計!E2:E11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="40">
+        <f>C3/$C13</f>
+        <v>1.7765144785930004E-4</v>
+      </c>
+      <c r="I3" s="40">
+        <f>F3/F$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
@@ -1280,8 +1303,16 @@
       <c r="F4" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" s="40">
+        <f>SUM(C$3:C4)/C$13</f>
+        <v>5.3295434357790016E-4</v>
+      </c>
+      <c r="I4" s="40">
+        <f>SUM(F$3:F4)/F$13</f>
+        <v>4.6118370484242886E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -1300,8 +1331,16 @@
       <c r="F5" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="40">
+        <f>SUM(C$3:C5)/C$13</f>
+        <v>1.9985787884171254E-3</v>
+      </c>
+      <c r="I5" s="40">
+        <f>SUM(F$3:F5)/F$13</f>
+        <v>2.8439661798616449E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
@@ -1320,8 +1359,16 @@
       <c r="F6" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" s="40">
+        <f>SUM(C$3:C6)/C$13</f>
+        <v>6.2622135370403271E-3</v>
+      </c>
+      <c r="I6" s="40">
+        <f>SUM(F$3:F6)/F$13</f>
+        <v>5.2267486548808612E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
@@ -1340,8 +1387,16 @@
       <c r="F7" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="40">
+        <f>SUM(C$3:C7)/C$13</f>
+        <v>2.0518742227749156E-2</v>
+      </c>
+      <c r="I7" s="40">
+        <f>SUM(F$3:F7)/F$13</f>
+        <v>9.2236740968485775E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
@@ -1360,8 +1415,16 @@
       <c r="F8" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" s="40">
+        <f>SUM(C$3:C8)/C$13</f>
+        <v>6.0090602238408244E-2</v>
+      </c>
+      <c r="I8" s="40">
+        <f>SUM(F$3:F8)/F$13</f>
+        <v>0.15910837817063797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -1380,8 +1443,16 @@
       <c r="F9" s="5">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" s="40">
+        <f>SUM(C$3:C9)/C$13</f>
+        <v>0.13279445727482678</v>
+      </c>
+      <c r="I9" s="40">
+        <f>SUM(F$3:F9)/F$13</f>
+        <v>0.24135280553420446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
@@ -1400,8 +1471,16 @@
       <c r="F10" s="5">
         <v>299</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10" s="40">
+        <f>SUM(C$3:C10)/C$13</f>
+        <v>0.33935867827322791</v>
+      </c>
+      <c r="I10" s="40">
+        <f>SUM(F$3:F10)/F$13</f>
+        <v>0.47117601844734819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
@@ -1420,8 +1499,16 @@
       <c r="F11" s="5">
         <v>687</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+      <c r="H11" s="40">
+        <f>SUM(C$3:C11)/C$13</f>
+        <v>0.9586516255107479</v>
+      </c>
+      <c r="I11" s="40">
+        <f>SUM(F$3:F11)/F$13</f>
+        <v>0.99923136049192929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" thickBot="1">
       <c r="A12" s="27" t="s">
         <v>20</v>
       </c>
@@ -1440,8 +1527,16 @@
       <c r="F12" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+      <c r="H12" s="40">
+        <f>SUM(C$3:C12)/C$13</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="40">
+        <f>SUM(F$3:F12)/F$13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21" thickBot="1">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -1466,7 +1561,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" s="29" t="s">
         <v>16</v>
       </c>
@@ -1480,12 +1575,12 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>76</v>
       </c>

--- a/data/Covid19_infection_vax_No79.xlsx
+++ b/data/Covid19_infection_vax_No79.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C221D-46A8-2243-84AC-9F6A92BB35E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05185F4-E478-6D48-AD73-DB6C581030F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30080" windowHeight="21580" activeTab="2" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
   </bookViews>
   <sheets>
     <sheet name="感染_ワクチン" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>10才未満</t>
     <phoneticPr fontId="1"/>
@@ -316,6 +316,22 @@
   </si>
   <si>
     <t>(データ出典)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告あたり重篤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告あたり死亡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数あたり重篤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数あたり死亡</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -323,8 +339,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="0.000%"/>
+    <numFmt numFmtId="182" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -769,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +893,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,7 +911,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C4F1B-109F-DD48-A686-124025DC4044}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1224,14 +1248,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1">
       <c r="A2" s="8"/>
@@ -1275,11 +1299,11 @@
         <f t="array" ref="F3:F12">一次集計!E2:E11</f>
         <v>0</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="35">
         <f>C3/$C13</f>
         <v>1.7765144785930004E-4</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="35">
         <f>F3/F$13</f>
         <v>0</v>
       </c>
@@ -1303,11 +1327,11 @@
       <c r="F4" s="5">
         <v>6</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="35">
         <f>SUM(C$3:C4)/C$13</f>
         <v>5.3295434357790016E-4</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="35">
         <f>SUM(F$3:F4)/F$13</f>
         <v>4.6118370484242886E-3</v>
       </c>
@@ -1331,11 +1355,11 @@
       <c r="F5" s="5">
         <v>31</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="35">
         <f>SUM(C$3:C5)/C$13</f>
         <v>1.9985787884171254E-3</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="35">
         <f>SUM(F$3:F5)/F$13</f>
         <v>2.8439661798616449E-2</v>
       </c>
@@ -1359,11 +1383,11 @@
       <c r="F6" s="5">
         <v>31</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="35">
         <f>SUM(C$3:C6)/C$13</f>
         <v>6.2622135370403271E-3</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="35">
         <f>SUM(F$3:F6)/F$13</f>
         <v>5.2267486548808612E-2</v>
       </c>
@@ -1387,11 +1411,11 @@
       <c r="F7" s="5">
         <v>52</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="35">
         <f>SUM(C$3:C7)/C$13</f>
         <v>2.0518742227749156E-2</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="35">
         <f>SUM(F$3:F7)/F$13</f>
         <v>9.2236740968485775E-2</v>
       </c>
@@ -1415,11 +1439,11 @@
       <c r="F8" s="5">
         <v>87</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="35">
         <f>SUM(C$3:C8)/C$13</f>
         <v>6.0090602238408244E-2</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="35">
         <f>SUM(F$3:F8)/F$13</f>
         <v>0.15910837817063797</v>
       </c>
@@ -1443,11 +1467,11 @@
       <c r="F9" s="5">
         <v>107</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="35">
         <f>SUM(C$3:C9)/C$13</f>
         <v>0.13279445727482678</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="35">
         <f>SUM(F$3:F9)/F$13</f>
         <v>0.24135280553420446</v>
       </c>
@@ -1471,11 +1495,11 @@
       <c r="F10" s="5">
         <v>299</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="35">
         <f>SUM(C$3:C10)/C$13</f>
         <v>0.33935867827322791</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="35">
         <f>SUM(F$3:F10)/F$13</f>
         <v>0.47117601844734819</v>
       </c>
@@ -1499,11 +1523,11 @@
       <c r="F11" s="5">
         <v>687</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="35">
         <f>SUM(C$3:C11)/C$13</f>
         <v>0.9586516255107479</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="35">
         <f>SUM(F$3:F11)/F$13</f>
         <v>0.99923136049192929</v>
       </c>
@@ -1527,11 +1551,11 @@
       <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="35">
         <f>SUM(C$3:C12)/C$13</f>
         <v>1</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="35">
         <f>SUM(F$3:F12)/F$13</f>
         <v>1</v>
       </c>
@@ -1565,15 +1589,15 @@
       <c r="A14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="34" t="s">
@@ -1837,15 +1861,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790EBE44-25EE-994F-97C2-8FB61AF1903E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="7" max="10" width="10.7109375" style="41"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1861,8 +1888,20 @@
       <c r="E1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1882,8 +1921,24 @@
         <f>SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!F3:F23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!J3:J23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!N3:N23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!R3:R23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" s="42">
+        <f>D2/$B2</f>
+        <v>3.0932458975826285E-6</v>
+      </c>
+      <c r="H2" s="42">
+        <f>E2/$B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="41">
+        <f>D2/$C2</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="J2" s="41">
+        <f>E2/$C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1903,8 +1958,24 @@
         <f>SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!F4:F24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!J4:J24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!N4:N24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!R4:R24)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="42">
+        <f t="shared" ref="G3:G11" si="0">D3/$B3</f>
+        <v>2.965999336901638E-5</v>
+      </c>
+      <c r="H3" s="42">
+        <f t="shared" ref="H3:H11" si="1">E3/$B3</f>
+        <v>4.0171548581060561E-7</v>
+      </c>
+      <c r="I3" s="41">
+        <f t="shared" ref="I3:I11" si="2">D3/$C3</f>
+        <v>0.25184764070494597</v>
+      </c>
+      <c r="J3" s="41">
+        <f t="shared" ref="J3:J11" si="3">E3/$C3</f>
+        <v>3.4110289937464467E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1924,8 +1995,24 @@
         <f>SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!F5:F25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!J5:J25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!N5:N25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!R5:R25)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="42">
+        <f t="shared" si="0"/>
+        <v>3.1506523226407641E-5</v>
+      </c>
+      <c r="H4" s="42">
+        <f t="shared" si="1"/>
+        <v>1.2734057627361628E-6</v>
+      </c>
+      <c r="I4" s="41">
+        <f t="shared" si="2"/>
+        <v>0.13411435565658331</v>
+      </c>
+      <c r="J4" s="41">
+        <f t="shared" si="3"/>
+        <v>5.4205280643469141E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1945,8 +2032,24 @@
         <f>SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!F6:F26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!J6:J26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!N6:N26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!R6:R26)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="42">
+        <f t="shared" si="0"/>
+        <v>2.9104849368087688E-5</v>
+      </c>
+      <c r="H5" s="42">
+        <f t="shared" si="1"/>
+        <v>1.1235994152063741E-6</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" si="2"/>
+        <v>0.13965217391304346</v>
+      </c>
+      <c r="J5" s="41">
+        <f t="shared" si="3"/>
+        <v>5.3913043478260869E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1966,8 +2069,24 @@
         <f>SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!F7:F27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!J7:J27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!N7:N27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!R7:R27)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="42">
+        <f t="shared" si="0"/>
+        <v>2.6210657946869263E-5</v>
+      </c>
+      <c r="H6" s="42">
+        <f t="shared" si="1"/>
+        <v>1.3656855844060137E-6</v>
+      </c>
+      <c r="I6" s="41">
+        <f t="shared" si="2"/>
+        <v>0.14178150305441115</v>
+      </c>
+      <c r="J6" s="41">
+        <f t="shared" si="3"/>
+        <v>7.3874129847989771E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1987,8 +2106,24 @@
         <f>SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!F8:F28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!J8:J28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!N8:N28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!R8:R28)</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="42">
+        <f t="shared" si="0"/>
+        <v>1.9956945102917131E-5</v>
+      </c>
+      <c r="H7" s="42">
+        <f t="shared" si="1"/>
+        <v>2.1382441181696923E-6</v>
+      </c>
+      <c r="I7" s="41">
+        <f t="shared" si="2"/>
+        <v>0.1621405750798722</v>
+      </c>
+      <c r="J7" s="41">
+        <f t="shared" si="3"/>
+        <v>1.7372204472843451E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2008,8 +2143,24 @@
         <f>SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!F9:F29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!J9:J29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!N9:N29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!R9:R29)</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="42">
+        <f t="shared" si="0"/>
+        <v>1.809552511777339E-5</v>
+      </c>
+      <c r="H8" s="42">
+        <f t="shared" si="1"/>
+        <v>2.6966868908102404E-6</v>
+      </c>
+      <c r="I8" s="41">
+        <f t="shared" si="2"/>
+        <v>0.24690508940852821</v>
+      </c>
+      <c r="J8" s="41">
+        <f t="shared" si="3"/>
+        <v>3.6795048143053642E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2029,8 +2180,24 @@
         <f>SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!F10:F30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!J10:J30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!N10:N30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!R10:R30)</f>
         <v>299</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="42">
+        <f t="shared" si="0"/>
+        <v>2.3039905628546545E-5</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" si="1"/>
+        <v>6.6559727371356684E-6</v>
+      </c>
+      <c r="I9" s="41">
+        <f t="shared" si="2"/>
+        <v>0.41852001617468659</v>
+      </c>
+      <c r="J9" s="41">
+        <f t="shared" si="3"/>
+        <v>0.12090578245046502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2050,8 +2217,24 @@
         <f>SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!F11:F31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!J11:J31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!N11:N31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!R11:R31)</f>
         <v>687</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="42">
+        <f t="shared" si="0"/>
+        <v>4.7545587564142813E-5</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="1"/>
+        <v>2.0898156530112675E-5</v>
+      </c>
+      <c r="I10" s="41">
+        <f t="shared" si="2"/>
+        <v>0.59316888045540794</v>
+      </c>
+      <c r="J10" s="41">
+        <f t="shared" si="3"/>
+        <v>0.26072106261859584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2070,6 +2253,22 @@
       <c r="E11" s="1">
         <f>SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!F12:F32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!J12:J32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!N12:N32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!R12:R32)</f>
         <v>1</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="0"/>
+        <v>2.7291918453567123E-6</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="1"/>
+        <v>4.5486530755945205E-7</v>
+      </c>
+      <c r="I11" s="41">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J11" s="41">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Covid19_infection_vax_No79.xlsx
+++ b/data/Covid19_infection_vax_No79.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05185F4-E478-6D48-AD73-DB6C581030F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C09D27-7FF3-C241-BB1D-3CB62C30D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30080" windowHeight="21580" activeTab="2" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
+    <workbookView xWindow="26720" yWindow="3120" windowWidth="30080" windowHeight="21580" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
   </bookViews>
   <sheets>
     <sheet name="感染_ワクチン" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="一次集計" sheetId="3" r:id="rId3"/>
     <sheet name="PDFデータ" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">感染_ワクチン!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">感染_ワクチン!$L$3:$L$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>10才未満</t>
     <phoneticPr fontId="1"/>
@@ -332,6 +336,14 @@
   </si>
   <si>
     <t>回数あたり死亡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コロナ死</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワクチン死</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -341,8 +353,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="181" formatCode="0.000%"/>
-    <numFmt numFmtId="182" formatCode="0.0000%"/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -896,6 +908,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,12 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1233,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C4F1B-109F-DD48-A686-124025DC4044}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1247,17 +1259,17 @@
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" thickBot="1">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" thickBot="1">
       <c r="A2" s="8"/>
       <c r="B2" s="30" t="s">
         <v>64</v>
@@ -1274,8 +1286,14 @@
       <c r="F2" s="33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1300,15 +1318,23 @@
         <v>0</v>
       </c>
       <c r="H3" s="35">
-        <f>C3/$C13</f>
+        <f>C3/C$13</f>
         <v>1.7765144785930004E-4</v>
       </c>
       <c r="I3" s="35">
         <f>F3/F$13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="35">
+        <f>$C3/$C$13</f>
+        <v>1.7765144785930004E-4</v>
+      </c>
+      <c r="L3" s="35">
+        <f>$F3/$F$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
@@ -1335,8 +1361,16 @@
         <f>SUM(F$3:F4)/F$13</f>
         <v>4.6118370484242886E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="35">
+        <f t="shared" ref="K4:K12" si="0">$C4/$C$13</f>
+        <v>3.5530289571860009E-4</v>
+      </c>
+      <c r="L4" s="35">
+        <f t="shared" ref="L4:L12" si="1">$F4/$F$13</f>
+        <v>4.6118370484242886E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -1363,8 +1397,16 @@
         <f>SUM(F$3:F5)/F$13</f>
         <v>2.8439661798616449E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="35">
+        <f t="shared" si="0"/>
+        <v>1.4656244448392254E-3</v>
+      </c>
+      <c r="L5" s="35">
+        <f t="shared" si="1"/>
+        <v>2.3827824750192159E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
@@ -1391,8 +1433,16 @@
         <f>SUM(F$3:F6)/F$13</f>
         <v>5.2267486548808612E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="35">
+        <f t="shared" si="0"/>
+        <v>4.2636347486232013E-3</v>
+      </c>
+      <c r="L6" s="35">
+        <f t="shared" si="1"/>
+        <v>2.3827824750192159E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
@@ -1419,8 +1469,16 @@
         <f>SUM(F$3:F7)/F$13</f>
         <v>9.2236740968485775E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="35">
+        <f t="shared" si="0"/>
+        <v>1.425652869070883E-2</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="1"/>
+        <v>3.9969254419677171E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
@@ -1447,8 +1505,16 @@
         <f>SUM(F$3:F8)/F$13</f>
         <v>0.15910837817063797</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="35">
+        <f t="shared" si="0"/>
+        <v>3.9571860010659085E-2</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="1"/>
+        <v>6.6871637202152195E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -1475,8 +1541,16 @@
         <f>SUM(F$3:F9)/F$13</f>
         <v>0.24135280553420446</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="35">
+        <f t="shared" si="0"/>
+        <v>7.2703855036418547E-2</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="1"/>
+        <v>8.2244427363566491E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
@@ -1503,8 +1577,16 @@
         <f>SUM(F$3:F10)/F$13</f>
         <v>0.47117601844734819</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="35">
+        <f t="shared" si="0"/>
+        <v>0.20656422099840113</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="1"/>
+        <v>0.22982321291314373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
@@ -1531,8 +1613,16 @@
         <f>SUM(F$3:F11)/F$13</f>
         <v>0.99923136049192929</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" thickBot="1">
+      <c r="K11" s="35">
+        <f t="shared" si="0"/>
+        <v>0.61929294723751993</v>
+      </c>
+      <c r="L11" s="35">
+        <f t="shared" si="1"/>
+        <v>0.52805534204458104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21" thickBot="1">
       <c r="A12" s="27" t="s">
         <v>20</v>
       </c>
@@ -1559,8 +1649,16 @@
         <f>SUM(F$3:F12)/F$13</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="21" thickBot="1">
+      <c r="K12" s="35">
+        <f t="shared" si="0"/>
+        <v>4.134837448925209E-2</v>
+      </c>
+      <c r="L12" s="35">
+        <f t="shared" si="1"/>
+        <v>7.6863950807071484E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="21" thickBot="1">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -1577,34 +1675,34 @@
         <v>265952830</v>
       </c>
       <c r="E13" s="13">
-        <f t="shared" ref="E13:F13" si="0">SUM(E3:E12)</f>
+        <f t="shared" ref="E13:F13" si="2">SUM(E3:E12)</f>
         <v>7147</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1301</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1863,13 +1961,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790EBE44-25EE-994F-97C2-8FB61AF1903E}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="7" max="10" width="10.7109375" style="41"/>
+    <col min="7" max="10" width="10.7109375" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1888,16 +1986,16 @@
       <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="36" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1921,19 +2019,19 @@
         <f>SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!F3:F23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!J3:J23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!N3:N23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!R3:R23)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="37">
         <f>D2/$B2</f>
         <v>3.0932458975826285E-6</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="37">
         <f>E2/$B2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="36">
         <f>D2/$C2</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="36">
         <f>E2/$C2</f>
         <v>0</v>
       </c>
@@ -1958,19 +2056,19 @@
         <f>SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!F4:F24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!J4:J24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!N4:N24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!R4:R24)</f>
         <v>6</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="37">
         <f t="shared" ref="G3:G11" si="0">D3/$B3</f>
         <v>2.965999336901638E-5</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="37">
         <f t="shared" ref="H3:H11" si="1">E3/$B3</f>
         <v>4.0171548581060561E-7</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="36">
         <f t="shared" ref="I3:I11" si="2">D3/$C3</f>
         <v>0.25184764070494597</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="36">
         <f t="shared" ref="J3:J11" si="3">E3/$C3</f>
         <v>3.4110289937464467E-3</v>
       </c>
@@ -1995,19 +2093,19 @@
         <f>SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!F5:F25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!J5:J25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!N5:N25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!R5:R25)</f>
         <v>31</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="37">
         <f t="shared" si="0"/>
         <v>3.1506523226407641E-5</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="37">
         <f t="shared" si="1"/>
         <v>1.2734057627361628E-6</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="36">
         <f t="shared" si="2"/>
         <v>0.13411435565658331</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="36">
         <f t="shared" si="3"/>
         <v>5.4205280643469141E-3</v>
       </c>
@@ -2032,19 +2130,19 @@
         <f>SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!F6:F26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!J6:J26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!N6:N26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!R6:R26)</f>
         <v>31</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="37">
         <f t="shared" si="0"/>
         <v>2.9104849368087688E-5</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="37">
         <f t="shared" si="1"/>
         <v>1.1235994152063741E-6</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="36">
         <f t="shared" si="2"/>
         <v>0.13965217391304346</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="36">
         <f t="shared" si="3"/>
         <v>5.3913043478260869E-3</v>
       </c>
@@ -2069,19 +2167,19 @@
         <f>SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!F7:F27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!J7:J27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!N7:N27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!R7:R27)</f>
         <v>52</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="37">
         <f t="shared" si="0"/>
         <v>2.6210657946869263E-5</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="37">
         <f t="shared" si="1"/>
         <v>1.3656855844060137E-6</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="36">
         <f t="shared" si="2"/>
         <v>0.14178150305441115</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="36">
         <f t="shared" si="3"/>
         <v>7.3874129847989771E-3</v>
       </c>
@@ -2106,19 +2204,19 @@
         <f>SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!F8:F28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!J8:J28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!N8:N28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!R8:R28)</f>
         <v>87</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="37">
         <f t="shared" si="0"/>
         <v>1.9956945102917131E-5</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="37">
         <f t="shared" si="1"/>
         <v>2.1382441181696923E-6</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="36">
         <f t="shared" si="2"/>
         <v>0.1621405750798722</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="36">
         <f t="shared" si="3"/>
         <v>1.7372204472843451E-2</v>
       </c>
@@ -2143,19 +2241,19 @@
         <f>SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!F9:F29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!J9:J29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!N9:N29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!R9:R29)</f>
         <v>107</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="37">
         <f t="shared" si="0"/>
         <v>1.809552511777339E-5</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="37">
         <f t="shared" si="1"/>
         <v>2.6966868908102404E-6</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="36">
         <f t="shared" si="2"/>
         <v>0.24690508940852821</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="36">
         <f t="shared" si="3"/>
         <v>3.6795048143053642E-2</v>
       </c>
@@ -2180,19 +2278,19 @@
         <f>SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!F10:F30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!J10:J30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!N10:N30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!R10:R30)</f>
         <v>299</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="37">
         <f t="shared" si="0"/>
         <v>2.3039905628546545E-5</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="37">
         <f t="shared" si="1"/>
         <v>6.6559727371356684E-6</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="36">
         <f t="shared" si="2"/>
         <v>0.41852001617468659</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="36">
         <f t="shared" si="3"/>
         <v>0.12090578245046502</v>
       </c>
@@ -2217,19 +2315,19 @@
         <f>SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!F11:F31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!J11:J31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!N11:N31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!R11:R31)</f>
         <v>687</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="37">
         <f t="shared" si="0"/>
         <v>4.7545587564142813E-5</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="37">
         <f t="shared" si="1"/>
         <v>2.0898156530112675E-5</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="36">
         <f t="shared" si="2"/>
         <v>0.59316888045540794</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="36">
         <f t="shared" si="3"/>
         <v>0.26072106261859584</v>
       </c>
@@ -2254,19 +2352,19 @@
         <f>SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!F12:F32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!J12:J32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!N12:N32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!R12:R32)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="37">
         <f t="shared" si="0"/>
         <v>2.7291918453567123E-6</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="37">
         <f t="shared" si="1"/>
         <v>4.5486530755945205E-7</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="36">
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="36">
         <f t="shared" si="3"/>
         <v>4.7619047619047616E-2</v>
       </c>

--- a/data/Covid19_infection_vax_No79.xlsx
+++ b/data/Covid19_infection_vax_No79.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C09D27-7FF3-C241-BB1D-3CB62C30D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DF5273-EAC6-AB44-B17A-6F9280C302A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26720" yWindow="3120" windowWidth="30080" windowHeight="21580" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
+    <workbookView xWindow="8360" yWindow="3040" windowWidth="30080" windowHeight="21580" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
   </bookViews>
   <sheets>
     <sheet name="感染_ワクチン" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,6 @@
     <sheet name="一次集計" sheetId="3" r:id="rId3"/>
     <sheet name="PDFデータ" sheetId="2" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">感染_ワクチン!$K$3:$K$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">感染_ワクチン!$L$3:$L$12</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1248,7 +1244,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A18" sqref="A18:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
